--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42521,6 +42521,76 @@
         <v>2001500</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1505200</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>405600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42591,6 +42591,41 @@
         <v>405600</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>651100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42626,6 +42626,41 @@
         <v>651100</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>137900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42661,6 +42661,41 @@
         <v>137900</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>359900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42696,6 +42696,41 @@
         <v>359900</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>383700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42731,6 +42731,76 @@
         <v>383700</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>93400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42801,6 +42801,41 @@
         <v>93400</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>147200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42836,6 +42836,41 @@
         <v>147200</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>462100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1350"/>
+  <dimension ref="A1:I1351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47736,6 +47736,41 @@
         <v>462100</v>
       </c>
     </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1351"/>
+  <dimension ref="A1:I1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47771,6 +47771,41 @@
         <v>115900</v>
       </c>
     </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>49600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1352"/>
+  <dimension ref="A1:I1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47806,6 +47806,41 @@
         <v>49600</v>
       </c>
     </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>139200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1353"/>
+  <dimension ref="A1:I1354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47841,6 +47841,41 @@
         <v>139200</v>
       </c>
     </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>40900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1354"/>
+  <dimension ref="A1:I1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47876,6 +47876,41 @@
         <v>40900</v>
       </c>
     </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>92500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1355"/>
+  <dimension ref="A1:I1356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47911,6 +47911,41 @@
         <v>92500</v>
       </c>
     </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>36200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1356"/>
+  <dimension ref="A1:I1357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47946,6 +47946,41 @@
         <v>36200</v>
       </c>
     </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>161400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1357"/>
+  <dimension ref="A1:I1358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47981,6 +47981,41 @@
         <v>161400</v>
       </c>
     </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>45100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1358"/>
+  <dimension ref="A1:I1359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48016,6 +48016,41 @@
         <v>45100</v>
       </c>
     </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1359"/>
+  <dimension ref="A1:I1360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48051,6 +48051,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>107000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1360"/>
+  <dimension ref="A1:I1361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48086,6 +48086,43 @@
         <v>107000</v>
       </c>
     </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1361" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1361"/>
+  <dimension ref="A1:I1362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48123,6 +48123,41 @@
         </is>
       </c>
     </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>273300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1362"/>
+  <dimension ref="A1:I1363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48158,6 +48158,41 @@
         <v>273300</v>
       </c>
     </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1363"/>
+  <dimension ref="A1:I1364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48193,6 +48193,43 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1364" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1364"/>
+  <dimension ref="A1:I1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48230,6 +48230,41 @@
         </is>
       </c>
     </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1365"/>
+  <dimension ref="A1:I1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48265,6 +48265,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1366"/>
+  <dimension ref="A1:I1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48300,6 +48300,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1367"/>
+  <dimension ref="A1:I1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48335,6 +48335,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>204900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1368"/>
+  <dimension ref="A1:I1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48370,6 +48370,41 @@
         <v>204900</v>
       </c>
     </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>49700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1369"/>
+  <dimension ref="A1:I1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48405,6 +48405,41 @@
         <v>49700</v>
       </c>
     </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>19500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1370"/>
+  <dimension ref="A1:I1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48440,6 +48440,41 @@
         <v>19500</v>
       </c>
     </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1371"/>
+  <dimension ref="A1:I1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48475,6 +48475,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1372"/>
+  <dimension ref="A1:I1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48510,6 +48510,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>169600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1373"/>
+  <dimension ref="A1:I1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48545,6 +48545,41 @@
         <v>169600</v>
       </c>
     </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>196900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1374"/>
+  <dimension ref="A1:I1375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48580,6 +48580,41 @@
         <v>196900</v>
       </c>
     </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>54800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1375"/>
+  <dimension ref="A1:I1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48615,6 +48615,76 @@
         <v>54800</v>
       </c>
     </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>264100</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>51100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1377"/>
+  <dimension ref="A1:I1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48685,6 +48685,41 @@
         <v>51100</v>
       </c>
     </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1378"/>
+  <dimension ref="A1:I1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48720,6 +48720,111 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1381" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>60400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1381"/>
+  <dimension ref="A1:I1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48825,6 +48825,41 @@
         <v>60400</v>
       </c>
     </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>256300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1382"/>
+  <dimension ref="A1:I1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48860,6 +48860,41 @@
         <v>256300</v>
       </c>
     </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>36100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0175.xlsx
+++ b/data/0175.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1383"/>
+  <dimension ref="A1:I1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48895,6 +48895,111 @@
         <v>36100</v>
       </c>
     </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>110200</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>71700</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>HHGROUP</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>183800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
